--- a/python/data/Excel/All_Rates_Prices_RAW_DATA.xlsx
+++ b/python/data/Excel/All_Rates_Prices_RAW_DATA.xlsx
@@ -514,22 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4378.12</t>
+          <t>10664.88</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9493.39</t>
+          <t>9411.33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20402.34</t>
+          <t>18822.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30764.50</t>
+          <t>27528.19</t>
         </is>
       </c>
     </row>
@@ -541,22 +541,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5604.46</t>
+          <t>10241.10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8666.63</t>
+          <t>9021.84</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18611.04</t>
+          <t>18043.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28054.50</t>
+          <t>26388.89</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6782.84</t>
+          <t>12289.31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9219.32</t>
+          <t>10826.18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19808.57</t>
+          <t>21652.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29866.10</t>
+          <t>31666.62</t>
         </is>
       </c>
     </row>
@@ -595,22 +595,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7703.51</t>
+          <t>13852.50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10078.90</t>
+          <t>11852.31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21670.94</t>
+          <t>23704.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32683.62</t>
+          <t>34667.95</t>
         </is>
       </c>
     </row>
@@ -622,22 +622,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6820.13</t>
+          <t>15557.11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10939.16</t>
+          <t>17354.69</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23534.85</t>
+          <t>34709.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>35503.39</t>
+          <t>50762.45</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4669.04</t>
+          <t>12658.57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9075.32</t>
+          <t>11104.74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19496.53</t>
+          <t>22209.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29394.11</t>
+          <t>32481.39</t>
         </is>
       </c>
     </row>
@@ -676,22 +676,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3681.52</t>
+          <t>10214.77</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8223.48</t>
+          <t>8968.28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17650.86</t>
+          <t>17936.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26601.94</t>
+          <t>26232.15</t>
         </is>
       </c>
     </row>
@@ -703,22 +703,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5619.40</t>
+          <t>14269.39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9121.95</t>
+          <t>12492.01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19597.59</t>
+          <t>24984.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29546.99</t>
+          <t>36539.14</t>
         </is>
       </c>
     </row>
@@ -730,22 +730,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9438.46</t>
+          <t>18236.54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14900.74</t>
+          <t>15481.71</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32118.20</t>
+          <t>30963.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48488.44</t>
+          <t>45283.91</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11508.52</t>
+          <t>22277.03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16152.75</t>
+          <t>18896.72</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34830.93</t>
+          <t>37793.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>52592.30</t>
+          <t>55272.86</t>
         </is>
       </c>
     </row>
